--- a/RootElement功能清单.xlsx
+++ b/RootElement功能清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljt\Desktop\rootElement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\root_element\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14509B3C-F876-4B2C-9C4C-B4C232B9F7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB9F28-C785-43B7-8C13-B53A66EF9A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,102 @@
   </si>
   <si>
     <t>表格操作栏，显示查看按钮，点击跳转到前台显示该博客的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格操作栏，显示删除按钮，点击按钮提示是否删除，点击确认删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类、标题、作者联合查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据标题模糊、作者模糊分类精确查询来构造查询条件，查询的结果也是以表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个tab栏用来编写博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示一个markdown编辑器，编辑完成之后提交，提交需要填写博客标题、博客作者、博客类型、博客简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客类型管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示博客所有类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示博客所有类型列表，上面有根据名字查询的表单，操作栏有编辑、删除、恢复按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据博客类型名查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据博客类型名模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除博客类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格操作栏删除按钮，点击弹出提示，确认删除博客类型（设置status为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除操作调用的是Delete请求，默认操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑博客类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转到编辑博客页面，编辑博客页面，可以编辑的字段有name、description。显示的字段有id、name、description，其中id设置为补课编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用PUT方式提交更新，更新时删除所有博客类型相关的redis缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复博客类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作栏恢复按钮，如果是正常状态的，弹出提示，如果是已删除状态的，发送请求完成恢复状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增博客类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出一个tab，新增博客类型的页面，新增表单需要填写的字段有name、description,其他字段后端生成，字段按照数据库规定来验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,15 +424,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -360,11 +450,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,6 +480,154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>49697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCA0DC8-8C02-4F2B-AA96-3561E0A0B10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282" y="16648044"/>
+          <a:ext cx="16440978" cy="2526196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>备注：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、所有更新类型的请求必须以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>请求方式发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ajax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，更新完删除所有相关影响类型的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、所有新增类型使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方式发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ajax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，新增之后也要删除相关影响类型的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,158 +895,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H6" s="6" t="s">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
-      <c r="H8" s="6" t="s">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H9" s="6" t="s">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H10" s="6" t="s">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -807,7 +1069,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -822,9 +1084,8 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9">
-        <f ca="1">TODAY()</f>
-        <v>43823</v>
+      <c r="G12" s="7">
+        <v>43824</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -837,7 +1098,7 @@
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
@@ -850,10 +1111,7 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="9">
-        <f ca="1">TODAY()</f>
-        <v>43823</v>
-      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,7 +1123,7 @@
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -878,10 +1136,7 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" ref="G14:G31" ca="1" si="0">TODAY()</f>
-        <v>43823</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
@@ -893,7 +1148,7 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -906,10 +1161,7 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,7 +1173,7 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,10 +1184,7 @@
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,10 +1196,10 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -962,10 +1211,7 @@
       <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1223,8 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
@@ -988,10 +1234,7 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1246,8 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1014,10 +1257,7 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,19 +1269,18 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,21 +1288,22 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,21 +1311,24 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,21 +1336,26 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,21 +1363,22 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,65 +1386,72 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1203,21 +1459,24 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,21 +1484,24 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,17 +1513,14 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,17 +1532,14 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
-      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1292,14 +1548,17 @@
       <c r="K31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B31"/>
+  <mergeCells count="6">
+    <mergeCell ref="B23:B28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C23:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>